--- a/examples/metamodel/metamodel.xlsx
+++ b/examples/metamodel/metamodel.xlsx
@@ -540,7 +540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -642,6 +642,11 @@
       <c r="S1" t="inlineStr">
         <is>
           <t>property__nullable</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>property__topic</t>
         </is>
       </c>
     </row>
@@ -656,7 +661,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,6 +698,11 @@
       <c r="F1" t="inlineStr">
         <is>
           <t>sMWType__javaType</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>sMWType__usedByProperties</t>
         </is>
       </c>
     </row>
@@ -707,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,6 +774,11 @@
       <c r="J1" t="inlineStr">
         <is>
           <t>topic__headerTabs</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>topic__context</t>
         </is>
       </c>
     </row>

--- a/examples/metamodel/metamodel.xlsx
+++ b/examples/metamodel/metamodel.xlsx
@@ -4,14 +4,14 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Action" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Context" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Property" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SMWType" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Topic" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Context" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Property" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SMW_Type" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Topic" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Action" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TopicLink" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
@@ -418,82 +418,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>action__name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>action__servicetype</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>action__service</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>action__inputtype</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>action__input</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>action__actionpage</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>action__output</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>action__engine</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>action__author</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>action__since</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>action__comment</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -505,27 +429,27 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>context__name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>context__since</t>
+          <t>since</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>context__updated</t>
+          <t>updated</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>context__copyright</t>
+          <t>copyright</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>context__master</t>
+          <t>master</t>
         </is>
       </c>
     </row>
@@ -534,7 +458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -551,102 +475,102 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>property__name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>property__label</t>
+          <t>label</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>property__type</t>
+          <t>type</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>property__index</t>
+          <t>index</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>property__sortPos</t>
+          <t>sortPos</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>property__primaryKey</t>
+          <t>primaryKey</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>property__mandatory</t>
+          <t>mandatory</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>property__namespace</t>
+          <t>namespace</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>property__size</t>
+          <t>size</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>property__uploadable</t>
+          <t>uploadable</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>property__defaultValue</t>
+          <t>defaultValue</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>property__inputType</t>
+          <t>inputType</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>property__allowedValues</t>
+          <t>allowedValues</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>property__documentation</t>
+          <t>documentation</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>property__values_from</t>
+          <t>values_from</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>property__externalFormatterURI</t>
+          <t>externalFormatterURI</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>property__showInGrid</t>
+          <t>showInGrid</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>property__isLink</t>
+          <t>isLink</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>property__nullable</t>
+          <t>nullable</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>property__topic</t>
+          <t>topic</t>
         </is>
       </c>
     </row>
@@ -655,7 +579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -672,37 +596,113 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>sMWType__type</t>
+          <t>type</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>sMWType__documentation</t>
+          <t>documentation</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>sMWType__id</t>
+          <t>id</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>sMWType__helppage</t>
+          <t>helppage</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>sMWType__typepage</t>
+          <t>typepage</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>sMWType__javaType</t>
+          <t>javaType</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>sMWType__usedByProperties</t>
+          <t>usedByProperties</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>pluralName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>icon</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>iconUrl</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>documentation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>wikiDocumentation</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>defaultstoremode</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>listLimit</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>cargo</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>headerTabs</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>context</t>
         </is>
       </c>
     </row>
@@ -728,57 +728,57 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>topic__name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>topic__pluralName</t>
+          <t>servicetype</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>topic__icon</t>
+          <t>service</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>topic__iconUrl</t>
+          <t>inputtype</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>topic__documentation</t>
+          <t>input</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>topic__wikiDocumentation</t>
+          <t>actionpage</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>topic__defaultstoremode</t>
+          <t>output</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>topic__listLimit</t>
+          <t>engine</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>topic__cargo</t>
+          <t>author</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>topic__headerTabs</t>
+          <t>since</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>topic__context</t>
+          <t>comment</t>
         </is>
       </c>
     </row>
@@ -804,52 +804,52 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>topicLink__name</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>topicLink__source</t>
+          <t>source</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>topicLink__sourceRole</t>
+          <t>sourceRole</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>topicLink__sourceMultiple</t>
+          <t>sourceMultiple</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>topicLink__sourceDocumentation</t>
+          <t>sourceDocumentation</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>topicLink__target</t>
+          <t>target</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>topicLink__targetRole</t>
+          <t>targetRole</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>topicLink__targetMultiple</t>
+          <t>targetMultiple</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>topicLink__targetDocumentation</t>
+          <t>targetDocumentation</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>topicLink__masterDetail</t>
+          <t>masterDetail</t>
         </is>
       </c>
     </row>
